--- a/documentation/projman/Week 8 - 11/Updated Detailed Budget Summary.xlsx
+++ b/documentation/projman/Week 8 - 11/Updated Detailed Budget Summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rthrm\Documents\APC_2022_2023_T3_PROJMAN_MI201_MI203_G04_Nacor_Industries\documentation\projman\Week 8 - 11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74118427-6CF8-4AEF-8B23-7D7FBF4F1C92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11259090-EB16-4F49-A3DA-406BE6056D0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{7D003B52-95C8-45B1-8BE0-8B90E7C89D80}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7D003B52-95C8-45B1-8BE0-8B90E7C89D80}"/>
   </bookViews>
   <sheets>
     <sheet name="WORK PACKAGES COST" sheetId="1" r:id="rId1"/>
@@ -2002,6 +2002,66 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="10" borderId="10" xfId="10" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="10" borderId="11" xfId="10" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="10" borderId="7" xfId="10" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="10" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="11" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="7" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="10" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="11" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="7" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="10" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="11" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="7" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="10" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="11" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="7" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2020,12 +2080,6 @@
     <xf numFmtId="0" fontId="11" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="7" borderId="10" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2107,116 +2161,62 @@
     <xf numFmtId="164" fontId="1" fillId="10" borderId="7" xfId="10" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="10" borderId="10" xfId="10" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="10" borderId="11" xfId="10" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="10" borderId="7" xfId="10" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="10" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="11" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="7" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="10" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="11" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="7" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="10" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="11" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="7" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="10" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="11" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="7" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="13" borderId="1" xfId="12" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="1" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="13" borderId="1" xfId="12" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="1" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="16">
@@ -2604,9 +2604,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{284ABAE4-BC47-423A-965B-5587C8C14F53}">
   <dimension ref="A1:W113"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="T77" sqref="T77"/>
+    <sheetView tabSelected="1" topLeftCell="A80" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B92" sqref="B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2638,186 +2638,186 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="187" t="s">
+      <c r="A1" s="207" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="188"/>
-      <c r="C1" s="188"/>
-      <c r="D1" s="188"/>
-      <c r="E1" s="188"/>
-      <c r="F1" s="188"/>
-      <c r="G1" s="188"/>
-      <c r="H1" s="188"/>
-      <c r="I1" s="188"/>
-      <c r="J1" s="188"/>
-      <c r="K1" s="188"/>
-      <c r="L1" s="188"/>
-      <c r="M1" s="188"/>
-      <c r="N1" s="188"/>
-      <c r="O1" s="188"/>
-      <c r="P1" s="188"/>
-      <c r="Q1" s="188"/>
-      <c r="R1" s="188"/>
-      <c r="S1" s="188"/>
-      <c r="T1" s="188"/>
-      <c r="U1" s="188"/>
-      <c r="V1" s="189"/>
+      <c r="B1" s="208"/>
+      <c r="C1" s="208"/>
+      <c r="D1" s="208"/>
+      <c r="E1" s="208"/>
+      <c r="F1" s="208"/>
+      <c r="G1" s="208"/>
+      <c r="H1" s="208"/>
+      <c r="I1" s="208"/>
+      <c r="J1" s="208"/>
+      <c r="K1" s="208"/>
+      <c r="L1" s="208"/>
+      <c r="M1" s="208"/>
+      <c r="N1" s="208"/>
+      <c r="O1" s="208"/>
+      <c r="P1" s="208"/>
+      <c r="Q1" s="208"/>
+      <c r="R1" s="208"/>
+      <c r="S1" s="208"/>
+      <c r="T1" s="208"/>
+      <c r="U1" s="208"/>
+      <c r="V1" s="209"/>
     </row>
     <row r="2" spans="1:23" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="190"/>
-      <c r="B2" s="191"/>
-      <c r="C2" s="191"/>
-      <c r="D2" s="191"/>
-      <c r="E2" s="191"/>
-      <c r="F2" s="191"/>
-      <c r="G2" s="191"/>
-      <c r="H2" s="191"/>
-      <c r="I2" s="191"/>
-      <c r="J2" s="191"/>
-      <c r="K2" s="191"/>
-      <c r="L2" s="191"/>
-      <c r="M2" s="191"/>
-      <c r="N2" s="191"/>
-      <c r="O2" s="191"/>
-      <c r="P2" s="191"/>
-      <c r="Q2" s="191"/>
-      <c r="R2" s="191"/>
-      <c r="S2" s="191"/>
-      <c r="T2" s="191"/>
-      <c r="U2" s="191"/>
-      <c r="V2" s="192"/>
+      <c r="A2" s="210"/>
+      <c r="B2" s="211"/>
+      <c r="C2" s="211"/>
+      <c r="D2" s="211"/>
+      <c r="E2" s="211"/>
+      <c r="F2" s="211"/>
+      <c r="G2" s="211"/>
+      <c r="H2" s="211"/>
+      <c r="I2" s="211"/>
+      <c r="J2" s="211"/>
+      <c r="K2" s="211"/>
+      <c r="L2" s="211"/>
+      <c r="M2" s="211"/>
+      <c r="N2" s="211"/>
+      <c r="O2" s="211"/>
+      <c r="P2" s="211"/>
+      <c r="Q2" s="211"/>
+      <c r="R2" s="211"/>
+      <c r="S2" s="211"/>
+      <c r="T2" s="211"/>
+      <c r="U2" s="211"/>
+      <c r="V2" s="212"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="225" t="s">
+      <c r="A3" s="192" t="s">
         <v>166</v>
       </c>
-      <c r="B3" s="193" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="194"/>
+      <c r="B3" s="190" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="191"/>
       <c r="D3" s="18"/>
-      <c r="E3" s="213" t="s">
+      <c r="E3" s="231" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="213"/>
-      <c r="G3" s="213"/>
-      <c r="H3" s="214" t="s">
+      <c r="F3" s="231"/>
+      <c r="G3" s="231"/>
+      <c r="H3" s="232" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="214"/>
-      <c r="J3" s="214"/>
-      <c r="K3" s="215" t="s">
-        <v>1</v>
-      </c>
-      <c r="L3" s="215"/>
-      <c r="M3" s="215"/>
-      <c r="N3" s="216" t="s">
+      <c r="I3" s="232"/>
+      <c r="J3" s="232"/>
+      <c r="K3" s="233" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="233"/>
+      <c r="M3" s="233"/>
+      <c r="N3" s="234" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="216"/>
-      <c r="P3" s="216"/>
-      <c r="Q3" s="217" t="s">
+      <c r="O3" s="234"/>
+      <c r="P3" s="234"/>
+      <c r="Q3" s="235" t="s">
         <v>8</v>
       </c>
-      <c r="R3" s="217"/>
-      <c r="S3" s="217"/>
-      <c r="T3" s="218" t="s">
+      <c r="R3" s="235"/>
+      <c r="S3" s="235"/>
+      <c r="T3" s="236" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="218"/>
-      <c r="V3" s="218"/>
+      <c r="U3" s="236"/>
+      <c r="V3" s="236"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="226"/>
-      <c r="B4" s="193" t="s">
+      <c r="A4" s="193"/>
+      <c r="B4" s="190" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="194"/>
+      <c r="C4" s="191"/>
       <c r="D4" s="41"/>
-      <c r="E4" s="195">
+      <c r="E4" s="213">
         <f>'BUDGET SUMMARY'!C6</f>
         <v>191</v>
       </c>
-      <c r="F4" s="196"/>
-      <c r="G4" s="197"/>
-      <c r="H4" s="201">
+      <c r="F4" s="214"/>
+      <c r="G4" s="215"/>
+      <c r="H4" s="219">
         <f>'BUDGET SUMMARY'!C10</f>
         <v>125</v>
       </c>
-      <c r="I4" s="202"/>
-      <c r="J4" s="203"/>
-      <c r="K4" s="207">
+      <c r="I4" s="220"/>
+      <c r="J4" s="221"/>
+      <c r="K4" s="225">
         <f>'BUDGET SUMMARY'!C7</f>
         <v>317</v>
       </c>
-      <c r="L4" s="208"/>
-      <c r="M4" s="209"/>
-      <c r="N4" s="228">
+      <c r="L4" s="226"/>
+      <c r="M4" s="227"/>
+      <c r="N4" s="195">
         <f>'BUDGET SUMMARY'!C12</f>
         <v>156.25</v>
       </c>
-      <c r="O4" s="229"/>
-      <c r="P4" s="230"/>
-      <c r="Q4" s="234">
+      <c r="O4" s="196"/>
+      <c r="P4" s="197"/>
+      <c r="Q4" s="201">
         <f>'BUDGET SUMMARY'!C8</f>
         <v>471.875</v>
       </c>
-      <c r="R4" s="235"/>
-      <c r="S4" s="236"/>
-      <c r="T4" s="219">
+      <c r="R4" s="202"/>
+      <c r="S4" s="203"/>
+      <c r="T4" s="237">
         <f>'BUDGET SUMMARY'!C9</f>
         <v>282.72500000000002</v>
       </c>
-      <c r="U4" s="220"/>
-      <c r="V4" s="221"/>
+      <c r="U4" s="238"/>
+      <c r="V4" s="239"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="226"/>
-      <c r="B5" s="193" t="s">
+      <c r="A5" s="193"/>
+      <c r="B5" s="190" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="194"/>
+      <c r="C5" s="191"/>
       <c r="D5" s="41"/>
-      <c r="E5" s="198">
+      <c r="E5" s="216">
         <f>'LAPTOP DEPRECIATION VALUE'!G6</f>
         <v>20.40920716112532</v>
       </c>
-      <c r="F5" s="199"/>
-      <c r="G5" s="200"/>
-      <c r="H5" s="204">
+      <c r="F5" s="217"/>
+      <c r="G5" s="218"/>
+      <c r="H5" s="222">
         <f>'LAPTOP DEPRECIATION VALUE'!G7</f>
         <v>41.652892561983471</v>
       </c>
-      <c r="I5" s="205"/>
-      <c r="J5" s="206"/>
-      <c r="K5" s="210">
+      <c r="I5" s="223"/>
+      <c r="J5" s="224"/>
+      <c r="K5" s="228">
         <f>'LAPTOP DEPRECIATION VALUE'!G8</f>
         <v>27.794117647058822</v>
       </c>
-      <c r="L5" s="211"/>
-      <c r="M5" s="212"/>
-      <c r="N5" s="231">
+      <c r="L5" s="229"/>
+      <c r="M5" s="230"/>
+      <c r="N5" s="198">
         <f>'LAPTOP DEPRECIATION VALUE'!G9</f>
         <v>20.172910662824208</v>
       </c>
-      <c r="O5" s="232"/>
-      <c r="P5" s="233"/>
-      <c r="Q5" s="237">
+      <c r="O5" s="199"/>
+      <c r="P5" s="200"/>
+      <c r="Q5" s="204">
         <f>'LAPTOP DEPRECIATION VALUE'!G10</f>
         <v>6.4</v>
       </c>
-      <c r="R5" s="238"/>
-      <c r="S5" s="239"/>
-      <c r="T5" s="222">
+      <c r="R5" s="205"/>
+      <c r="S5" s="206"/>
+      <c r="T5" s="187">
         <f>'LAPTOP DEPRECIATION VALUE'!G11</f>
         <v>15.217391304347826</v>
       </c>
-      <c r="U5" s="223"/>
-      <c r="V5" s="224"/>
+      <c r="U5" s="188"/>
+      <c r="V5" s="189"/>
       <c r="W5" s="157"/>
     </row>
     <row r="6" spans="1:23" s="8" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="227"/>
+      <c r="A6" s="194"/>
       <c r="B6" s="161" t="s">
         <v>66</v>
       </c>
@@ -11012,13 +11012,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="T5:V5"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="Q5:S5"/>
     <mergeCell ref="A1:V2"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
@@ -11035,6 +11028,13 @@
     <mergeCell ref="Q3:S3"/>
     <mergeCell ref="T3:V3"/>
     <mergeCell ref="T4:V4"/>
+    <mergeCell ref="T5:V5"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="Q5:S5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11293,7 +11293,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DDFD44E-16A7-41E3-929B-6E95701F6998}">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A9" sqref="A9:B9"/>
     </sheetView>
   </sheetViews>
@@ -11311,78 +11311,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="241" t="s">
+      <c r="A1" s="257" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="241"/>
-      <c r="C1" s="241"/>
-      <c r="D1" s="241"/>
-      <c r="E1" s="241"/>
-      <c r="F1" s="241"/>
+      <c r="B1" s="257"/>
+      <c r="C1" s="257"/>
+      <c r="D1" s="257"/>
+      <c r="E1" s="257"/>
+      <c r="F1" s="257"/>
     </row>
     <row r="2" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="241"/>
-      <c r="B2" s="241"/>
-      <c r="C2" s="241"/>
-      <c r="D2" s="241"/>
-      <c r="E2" s="241"/>
-      <c r="F2" s="241"/>
+      <c r="A2" s="257"/>
+      <c r="B2" s="257"/>
+      <c r="C2" s="257"/>
+      <c r="D2" s="257"/>
+      <c r="E2" s="257"/>
+      <c r="F2" s="257"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="242" t="s">
+      <c r="A3" s="253" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="242"/>
-      <c r="C3" s="242">
+      <c r="B3" s="253"/>
+      <c r="C3" s="253">
         <v>21</v>
       </c>
-      <c r="D3" s="242"/>
-      <c r="E3" s="242"/>
-      <c r="F3" s="242"/>
+      <c r="D3" s="253"/>
+      <c r="E3" s="253"/>
+      <c r="F3" s="253"/>
     </row>
     <row r="4" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="243" t="s">
+      <c r="A4" s="256" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="243"/>
-      <c r="C4" s="243"/>
-      <c r="D4" s="243"/>
-      <c r="E4" s="243"/>
-      <c r="F4" s="243"/>
-      <c r="H4" s="256" t="s">
+      <c r="B4" s="256"/>
+      <c r="C4" s="256"/>
+      <c r="D4" s="256"/>
+      <c r="E4" s="256"/>
+      <c r="F4" s="256"/>
+      <c r="H4" s="249" t="s">
         <v>167</v>
       </c>
-      <c r="I4" s="257" t="s">
+      <c r="I4" s="241" t="s">
         <v>168</v>
       </c>
-      <c r="J4" s="258" t="s">
+      <c r="J4" s="242" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="244" t="s">
+      <c r="A5" s="245" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="244"/>
+      <c r="B5" s="245"/>
       <c r="C5" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="244" t="s">
+      <c r="E5" s="245" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="244"/>
-      <c r="H5" s="256"/>
-      <c r="I5" s="257"/>
-      <c r="J5" s="258"/>
+      <c r="F5" s="245"/>
+      <c r="H5" s="249"/>
+      <c r="I5" s="241"/>
+      <c r="J5" s="242"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="252" t="s">
+      <c r="A6" s="258" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="252"/>
+      <c r="B6" s="258"/>
       <c r="C6" s="9">
         <v>191</v>
       </c>
@@ -11390,11 +11390,11 @@
         <f>'LAPTOP DEPRECIATION VALUE'!F6</f>
         <v>391</v>
       </c>
-      <c r="E6" s="248">
+      <c r="E6" s="243">
         <f>C6*D6</f>
         <v>74681</v>
       </c>
-      <c r="F6" s="248"/>
+      <c r="F6" s="243"/>
       <c r="H6" s="19" t="s">
         <v>49</v>
       </c>
@@ -11406,10 +11406,10 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="246" t="s">
+      <c r="A7" s="250" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="246"/>
+      <c r="B7" s="250"/>
       <c r="C7" s="9">
         <v>317</v>
       </c>
@@ -11417,11 +11417,11 @@
         <f>'LAPTOP DEPRECIATION VALUE'!F8</f>
         <v>340</v>
       </c>
-      <c r="E7" s="248">
+      <c r="E7" s="243">
         <f t="shared" ref="E7:E12" si="0">C7*D7</f>
         <v>107780</v>
       </c>
-      <c r="F7" s="248"/>
+      <c r="F7" s="243"/>
       <c r="H7" s="20" t="s">
         <v>50</v>
       </c>
@@ -11433,10 +11433,10 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="246" t="s">
+      <c r="A8" s="250" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="246"/>
+      <c r="B8" s="250"/>
       <c r="C8" s="9">
         <v>471.875</v>
       </c>
@@ -11444,11 +11444,11 @@
         <f>'LAPTOP DEPRECIATION VALUE'!F10</f>
         <v>875</v>
       </c>
-      <c r="E8" s="248">
+      <c r="E8" s="243">
         <f t="shared" si="0"/>
         <v>412890.625</v>
       </c>
-      <c r="F8" s="248"/>
+      <c r="F8" s="243"/>
       <c r="H8" s="20" t="s">
         <v>51</v>
       </c>
@@ -11460,10 +11460,10 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="246" t="s">
+      <c r="A9" s="250" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="246"/>
+      <c r="B9" s="250"/>
       <c r="C9" s="9">
         <v>282.72500000000002</v>
       </c>
@@ -11471,11 +11471,11 @@
         <f>'LAPTOP DEPRECIATION VALUE'!F11</f>
         <v>552</v>
       </c>
-      <c r="E9" s="248">
+      <c r="E9" s="243">
         <f t="shared" si="0"/>
         <v>156064.20000000001</v>
       </c>
-      <c r="F9" s="248"/>
+      <c r="F9" s="243"/>
       <c r="H9" s="20" t="s">
         <v>169</v>
       </c>
@@ -11487,21 +11487,21 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="246" t="s">
+      <c r="A10" s="250" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="246"/>
+      <c r="B10" s="250"/>
       <c r="C10" s="9">
         <v>125</v>
       </c>
       <c r="D10" s="8">
         <v>121</v>
       </c>
-      <c r="E10" s="248">
+      <c r="E10" s="243">
         <f t="shared" si="0"/>
         <v>15125</v>
       </c>
-      <c r="F10" s="248"/>
+      <c r="F10" s="243"/>
       <c r="H10" s="20" t="s">
         <v>53</v>
       </c>
@@ -11513,21 +11513,21 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="246" t="s">
+      <c r="A11" s="250" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="246"/>
+      <c r="B11" s="250"/>
       <c r="C11" s="9">
         <v>92.5</v>
       </c>
       <c r="D11" s="8">
         <v>24</v>
       </c>
-      <c r="E11" s="248">
+      <c r="E11" s="243">
         <f t="shared" si="0"/>
         <v>2220</v>
       </c>
-      <c r="F11" s="248"/>
+      <c r="F11" s="243"/>
       <c r="H11" s="20" t="s">
         <v>55</v>
       </c>
@@ -11539,10 +11539,10 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="246" t="s">
+      <c r="A12" s="250" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="246"/>
+      <c r="B12" s="250"/>
       <c r="C12" s="9">
         <v>156.25</v>
       </c>
@@ -11550,11 +11550,11 @@
         <f>'LAPTOP DEPRECIATION VALUE'!F9</f>
         <v>347</v>
       </c>
-      <c r="E12" s="248">
+      <c r="E12" s="243">
         <f t="shared" si="0"/>
         <v>54218.75</v>
       </c>
-      <c r="F12" s="248"/>
+      <c r="F12" s="243"/>
       <c r="H12" s="20" t="s">
         <v>54</v>
       </c>
@@ -11566,73 +11566,73 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="251" t="s">
+      <c r="A13" s="255" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="251"/>
-      <c r="C13" s="250">
+      <c r="B13" s="255"/>
+      <c r="C13" s="244">
         <f>SUM(E6:F12)</f>
         <v>822979.57499999995</v>
       </c>
-      <c r="D13" s="251"/>
-      <c r="E13" s="251"/>
-      <c r="F13" s="251"/>
+      <c r="D13" s="255"/>
+      <c r="E13" s="255"/>
+      <c r="F13" s="255"/>
     </row>
     <row r="14" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="243" t="s">
+      <c r="A14" s="256" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="243"/>
-      <c r="C14" s="243"/>
-      <c r="D14" s="243"/>
-      <c r="E14" s="243"/>
-      <c r="F14" s="243"/>
+      <c r="B14" s="256"/>
+      <c r="C14" s="256"/>
+      <c r="D14" s="256"/>
+      <c r="E14" s="256"/>
+      <c r="F14" s="256"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="242" t="s">
+      <c r="A15" s="253" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="242"/>
-      <c r="C15" s="242" t="s">
+      <c r="B15" s="253"/>
+      <c r="C15" s="253" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="242"/>
-      <c r="E15" s="242"/>
-      <c r="F15" s="242"/>
+      <c r="D15" s="253"/>
+      <c r="E15" s="253"/>
+      <c r="F15" s="253"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="246" t="s">
+      <c r="A16" s="250" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="246"/>
-      <c r="C16" s="247" t="s">
+      <c r="B16" s="250"/>
+      <c r="C16" s="254" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="247"/>
-      <c r="E16" s="247"/>
-      <c r="F16" s="247"/>
+      <c r="D16" s="254"/>
+      <c r="E16" s="254"/>
+      <c r="F16" s="254"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="251" t="s">
+      <c r="A17" s="255" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="251"/>
-      <c r="C17" s="250">
-        <v>0</v>
-      </c>
-      <c r="D17" s="250"/>
-      <c r="E17" s="250"/>
-      <c r="F17" s="250"/>
+      <c r="B17" s="255"/>
+      <c r="C17" s="244">
+        <v>0</v>
+      </c>
+      <c r="D17" s="244"/>
+      <c r="E17" s="244"/>
+      <c r="F17" s="244"/>
     </row>
     <row r="18" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="243" t="s">
+      <c r="A18" s="256" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="243"/>
-      <c r="C18" s="243"/>
-      <c r="D18" s="243"/>
-      <c r="E18" s="243"/>
-      <c r="F18" s="243"/>
+      <c r="B18" s="256"/>
+      <c r="C18" s="256"/>
+      <c r="D18" s="256"/>
+      <c r="E18" s="256"/>
+      <c r="F18" s="256"/>
     </row>
     <row r="19" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
@@ -11647,216 +11647,216 @@
       <c r="D19" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="245" t="s">
+      <c r="E19" s="252" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="245"/>
+      <c r="F19" s="252"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="253">
+      <c r="B20" s="251">
         <v>329</v>
       </c>
-      <c r="C20" s="253">
+      <c r="C20" s="251">
         <f>B20*12</f>
         <v>3948</v>
       </c>
-      <c r="D20" s="245">
-        <v>1</v>
-      </c>
-      <c r="E20" s="253">
+      <c r="D20" s="252">
+        <v>1</v>
+      </c>
+      <c r="E20" s="251">
         <f>C20*D20</f>
         <v>3948</v>
       </c>
-      <c r="F20" s="245"/>
+      <c r="F20" s="252"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="253"/>
-      <c r="C21" s="253"/>
-      <c r="D21" s="245"/>
-      <c r="E21" s="245"/>
-      <c r="F21" s="245"/>
+      <c r="B21" s="251"/>
+      <c r="C21" s="251"/>
+      <c r="D21" s="252"/>
+      <c r="E21" s="252"/>
+      <c r="F21" s="252"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="253"/>
-      <c r="C22" s="253"/>
-      <c r="D22" s="245"/>
-      <c r="E22" s="245"/>
-      <c r="F22" s="245"/>
+      <c r="B22" s="251"/>
+      <c r="C22" s="251"/>
+      <c r="D22" s="252"/>
+      <c r="E22" s="252"/>
+      <c r="F22" s="252"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="253"/>
-      <c r="C23" s="253"/>
-      <c r="D23" s="245"/>
-      <c r="E23" s="245"/>
-      <c r="F23" s="245"/>
+      <c r="B23" s="251"/>
+      <c r="C23" s="251"/>
+      <c r="D23" s="252"/>
+      <c r="E23" s="252"/>
+      <c r="F23" s="252"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="251" t="s">
+      <c r="A24" s="255" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="251"/>
-      <c r="C24" s="250">
+      <c r="B24" s="255"/>
+      <c r="C24" s="244">
         <f>SUM(E20)</f>
         <v>3948</v>
       </c>
-      <c r="D24" s="251"/>
-      <c r="E24" s="251"/>
-      <c r="F24" s="251"/>
+      <c r="D24" s="255"/>
+      <c r="E24" s="255"/>
+      <c r="F24" s="255"/>
     </row>
     <row r="25" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="243" t="s">
+      <c r="A25" s="256" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="243"/>
-      <c r="C25" s="243"/>
-      <c r="D25" s="243"/>
-      <c r="E25" s="243"/>
-      <c r="F25" s="243"/>
+      <c r="B25" s="256"/>
+      <c r="C25" s="256"/>
+      <c r="D25" s="256"/>
+      <c r="E25" s="256"/>
+      <c r="F25" s="256"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="245" t="s">
+      <c r="B26" s="252" t="s">
         <v>56</v>
       </c>
-      <c r="C26" s="245"/>
-      <c r="D26" s="245"/>
-      <c r="E26" s="245" t="s">
+      <c r="C26" s="252"/>
+      <c r="D26" s="252"/>
+      <c r="E26" s="252" t="s">
         <v>44</v>
       </c>
-      <c r="F26" s="245"/>
+      <c r="F26" s="252"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B27" s="249">
+      <c r="B27" s="248">
         <f>'LAPTOP DEPRECIATION VALUE'!D6</f>
         <v>22800</v>
       </c>
-      <c r="C27" s="249"/>
-      <c r="D27" s="249"/>
-      <c r="E27" s="249">
+      <c r="C27" s="248"/>
+      <c r="D27" s="248"/>
+      <c r="E27" s="248">
         <f>'LAPTOP DEPRECIATION VALUE'!E6</f>
         <v>7980</v>
       </c>
-      <c r="F27" s="249"/>
+      <c r="F27" s="248"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B28" s="249">
+      <c r="B28" s="248">
         <f>'LAPTOP DEPRECIATION VALUE'!D7</f>
         <v>14400</v>
       </c>
-      <c r="C28" s="249"/>
-      <c r="D28" s="249"/>
-      <c r="E28" s="249">
+      <c r="C28" s="248"/>
+      <c r="D28" s="248"/>
+      <c r="E28" s="248">
         <f>'LAPTOP DEPRECIATION VALUE'!E7</f>
         <v>5040</v>
       </c>
-      <c r="F28" s="249"/>
+      <c r="F28" s="248"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B29" s="249">
+      <c r="B29" s="248">
         <f>'LAPTOP DEPRECIATION VALUE'!D8</f>
         <v>27000</v>
       </c>
-      <c r="C29" s="249"/>
-      <c r="D29" s="249"/>
-      <c r="E29" s="249">
+      <c r="C29" s="248"/>
+      <c r="D29" s="248"/>
+      <c r="E29" s="248">
         <f>'LAPTOP DEPRECIATION VALUE'!E8</f>
         <v>9450</v>
       </c>
-      <c r="F29" s="249"/>
+      <c r="F29" s="248"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B30" s="249">
+      <c r="B30" s="248">
         <f>'LAPTOP DEPRECIATION VALUE'!D9</f>
         <v>20000</v>
       </c>
-      <c r="C30" s="249"/>
-      <c r="D30" s="249"/>
-      <c r="E30" s="249">
+      <c r="C30" s="248"/>
+      <c r="D30" s="248"/>
+      <c r="E30" s="248">
         <f>'LAPTOP DEPRECIATION VALUE'!E9</f>
         <v>7000</v>
       </c>
-      <c r="F30" s="249"/>
+      <c r="F30" s="248"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B31" s="249">
+      <c r="B31" s="248">
         <f>'LAPTOP DEPRECIATION VALUE'!D10</f>
         <v>16000</v>
       </c>
-      <c r="C31" s="249"/>
-      <c r="D31" s="249"/>
-      <c r="E31" s="249">
+      <c r="C31" s="248"/>
+      <c r="D31" s="248"/>
+      <c r="E31" s="248">
         <f>'LAPTOP DEPRECIATION VALUE'!E10</f>
         <v>5600</v>
       </c>
-      <c r="F31" s="249"/>
+      <c r="F31" s="248"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="249">
+      <c r="B32" s="248">
         <f>'LAPTOP DEPRECIATION VALUE'!D11</f>
         <v>24000</v>
       </c>
-      <c r="C32" s="249"/>
-      <c r="D32" s="249"/>
-      <c r="E32" s="249">
+      <c r="C32" s="248"/>
+      <c r="D32" s="248"/>
+      <c r="E32" s="248">
         <f>'LAPTOP DEPRECIATION VALUE'!E11</f>
         <v>8400</v>
       </c>
-      <c r="F32" s="249"/>
+      <c r="F32" s="248"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="251" t="s">
+      <c r="A33" s="255" t="s">
         <v>45</v>
       </c>
-      <c r="B33" s="251"/>
-      <c r="C33" s="250">
+      <c r="B33" s="255"/>
+      <c r="C33" s="244">
         <f>SUM(E27:F32)</f>
         <v>43470</v>
       </c>
-      <c r="D33" s="250"/>
-      <c r="E33" s="250"/>
-      <c r="F33" s="250"/>
+      <c r="D33" s="244"/>
+      <c r="E33" s="244"/>
+      <c r="F33" s="244"/>
     </row>
     <row r="34" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="243" t="s">
+      <c r="A34" s="256" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="243"/>
-      <c r="C34" s="243"/>
-      <c r="D34" s="243"/>
-      <c r="E34" s="243"/>
-      <c r="F34" s="243"/>
+      <c r="B34" s="256"/>
+      <c r="C34" s="256"/>
+      <c r="D34" s="256"/>
+      <c r="E34" s="256"/>
+      <c r="F34" s="256"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
@@ -11871,87 +11871,91 @@
       <c r="D35" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E35" s="242" t="s">
+      <c r="E35" s="253" t="s">
         <v>18</v>
       </c>
-      <c r="F35" s="242"/>
+      <c r="F35" s="253"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B36" s="245" t="s">
+      <c r="B36" s="252" t="s">
         <v>46</v>
       </c>
-      <c r="C36" s="245"/>
-      <c r="D36" s="245"/>
-      <c r="E36" s="245"/>
-      <c r="F36" s="245"/>
+      <c r="C36" s="252"/>
+      <c r="D36" s="252"/>
+      <c r="E36" s="252"/>
+      <c r="F36" s="252"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B37" s="245"/>
-      <c r="C37" s="245"/>
-      <c r="D37" s="245"/>
-      <c r="E37" s="245"/>
-      <c r="F37" s="245"/>
+      <c r="B37" s="252"/>
+      <c r="C37" s="252"/>
+      <c r="D37" s="252"/>
+      <c r="E37" s="252"/>
+      <c r="F37" s="252"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B38" s="245"/>
-      <c r="C38" s="245"/>
-      <c r="D38" s="245"/>
-      <c r="E38" s="245"/>
-      <c r="F38" s="245"/>
+      <c r="B38" s="252"/>
+      <c r="C38" s="252"/>
+      <c r="D38" s="252"/>
+      <c r="E38" s="252"/>
+      <c r="F38" s="252"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="255" t="s">
+      <c r="A39" s="247" t="s">
         <v>47</v>
       </c>
-      <c r="B39" s="255"/>
-      <c r="C39" s="255"/>
-      <c r="D39" s="254">
+      <c r="B39" s="247"/>
+      <c r="C39" s="247"/>
+      <c r="D39" s="246">
         <f>SUM(C13,C24,C33)</f>
         <v>870397.57499999995</v>
       </c>
-      <c r="E39" s="255"/>
-      <c r="F39" s="255"/>
+      <c r="E39" s="247"/>
+      <c r="F39" s="247"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="242" t="s">
+      <c r="A40" s="253" t="s">
         <v>48</v>
       </c>
-      <c r="B40" s="242"/>
-      <c r="C40" s="242"/>
-      <c r="D40" s="247" t="s">
+      <c r="B40" s="253"/>
+      <c r="C40" s="253"/>
+      <c r="D40" s="254" t="s">
         <v>46</v>
       </c>
-      <c r="E40" s="247"/>
-      <c r="F40" s="247"/>
+      <c r="E40" s="254"/>
+      <c r="F40" s="254"/>
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="E20:F23"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:F26"/>
     <mergeCell ref="A40:C40"/>
     <mergeCell ref="D40:F40"/>
     <mergeCell ref="C13:F13"/>
@@ -11968,36 +11972,32 @@
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="C33:F33"/>
     <mergeCell ref="B30:D30"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="E20:F23"/>
     <mergeCell ref="E27:F27"/>
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="E29:F29"/>
     <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="E5:F5"/>
     <mergeCell ref="A14:F14"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="C15:F15"/>
     <mergeCell ref="C16:F16"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="E7:F7"/>
     <mergeCell ref="E8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
